--- a/biology/Médecine/Memorial_Sloan-Kettering_Cancer_Center/Memorial_Sloan-Kettering_Cancer_Center.xlsx
+++ b/biology/Médecine/Memorial_Sloan-Kettering_Cancer_Center/Memorial_Sloan-Kettering_Cancer_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Memorial Sloan-Kettering Cancer Center ou MSKCC est un centre de traitement et de recherche sur le cancer fondé en 1884 en tant que New York Cancer Hospital à New York aux États-Unis. Le bâtiment principal est situé au 1275 York Avenue, entre la 67e et la 68e rue, avec des bâtiments annexes à Basking Ridge dans le New Jersey, Long Island et dans le comté de Westchester.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MSKCC est actuellement composé de deux institutions intimement liées :
 D'une part le Memorial Hospital for Cancer and Allied Diseases, qui apporte des soins aux patients et qui est une émanation du Weill Cornell Medical College de l'université Cornell, fondé par John D. Rockefeller, en 1900. Le bâtiment d'origine du Memorial Hospital est construit en 1939 grâce au mécénat du couple John Jacob Astor et Charlotte Astor. Entre 1970 et 1973, un nouvel hôpital est construit sur le même site avec le soutien de John Davison Rockefeller Junior.
@@ -547,7 +561,9 @@
           <t>Personnalités liées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Shoshanna Lonstein-Gruss (1975-), autrice et créatrice de mode américaine. Elle a été vice-présidente du comité associé et de son comité des enfants de 2012 à 2014.</t>
         </is>
